--- a/data/trans_orig/P1402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>39885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29448</v>
+        <v>29181</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53128</v>
+        <v>54169</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0574696469258389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04243123264558028</v>
+        <v>0.04204625704134495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07655200300501708</v>
+        <v>0.07805131674499324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -765,19 +765,19 @@
         <v>41502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29471</v>
+        <v>30334</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54391</v>
+        <v>55390</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06029222422068769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04281417024556597</v>
+        <v>0.04406715390133572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07901666119267782</v>
+        <v>0.08046814624424248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -786,19 +786,19 @@
         <v>81387</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66589</v>
+        <v>65981</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100814</v>
+        <v>100601</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05887515601975725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0481703796272397</v>
+        <v>0.04773087819175446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0729285247241263</v>
+        <v>0.07277454170054427</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>654127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>640884</v>
+        <v>639843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>664564</v>
+        <v>664831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9425303530741611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9234479969949831</v>
+        <v>0.9219486832550065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9575687673544198</v>
+        <v>0.9579537429586547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>654</v>
@@ -836,19 +836,19 @@
         <v>646849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>633960</v>
+        <v>632961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>658880</v>
+        <v>658017</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9397077757793123</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9209833388073223</v>
+        <v>0.9195318537557579</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.957185829754434</v>
+        <v>0.9559328460986644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1296</v>
@@ -857,19 +857,19 @@
         <v>1300976</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1281549</v>
+        <v>1281762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315774</v>
+        <v>1316382</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9411248439802428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9270714752758739</v>
+        <v>0.927225458299456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9518296203727603</v>
+        <v>0.9522691218082456</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>65006</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49510</v>
+        <v>49811</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81330</v>
+        <v>80921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.067588128094953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05147631050283874</v>
+        <v>0.05178925866157674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0845602214038572</v>
+        <v>0.08413523148756737</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -982,19 +982,19 @@
         <v>76565</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59923</v>
+        <v>61000</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96274</v>
+        <v>95690</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07906409441352076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06187829830590177</v>
+        <v>0.06299126664681963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09941581119578242</v>
+        <v>0.09881328833444591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -1003,19 +1003,19 @@
         <v>141571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117709</v>
+        <v>120459</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166780</v>
+        <v>166559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07334571075807969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06098300450718439</v>
+        <v>0.06240792656465954</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08640587936702884</v>
+        <v>0.08629124190446504</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>896794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>880470</v>
+        <v>880879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>912290</v>
+        <v>911989</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.932411871905047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.915439778596143</v>
+        <v>0.9158647685124327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9485236894971614</v>
+        <v>0.9482107413384233</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>837</v>
@@ -1053,19 +1053,19 @@
         <v>891828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>872119</v>
+        <v>872703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>908470</v>
+        <v>907393</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9209359055864792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9005841888042176</v>
+        <v>0.9011867116655541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9381217016940985</v>
+        <v>0.9370087333531804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1670</v>
@@ -1074,19 +1074,19 @@
         <v>1788622</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1763413</v>
+        <v>1763634</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1812484</v>
+        <v>1809734</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9266542892419203</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9135941206329712</v>
+        <v>0.9137087580955349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9390169954928155</v>
+        <v>0.9375920734353405</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>29851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20243</v>
+        <v>21017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41463</v>
+        <v>43073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04399497549065279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02983499951465725</v>
+        <v>0.03097498831132587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06110849139580501</v>
+        <v>0.06348141718298192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1199,19 +1199,19 @@
         <v>45293</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33571</v>
+        <v>33714</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59466</v>
+        <v>61554</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06623265825821842</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04909234755247947</v>
+        <v>0.04930149358164947</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0869581628182271</v>
+        <v>0.09001220692806951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -1220,19 +1220,19 @@
         <v>75144</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60453</v>
+        <v>60137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93307</v>
+        <v>93619</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05515733506862894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04437410802960583</v>
+        <v>0.04414219201511218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06848968383505874</v>
+        <v>0.06871869080885684</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>648658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>637046</v>
+        <v>635436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>658266</v>
+        <v>657492</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9560050245093472</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.938891508604195</v>
+        <v>0.9365185828170181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9701650004853428</v>
+        <v>0.9690250116886742</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>649</v>
@@ -1270,19 +1270,19 @@
         <v>638548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>624375</v>
+        <v>622287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>650270</v>
+        <v>650127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9337673417417816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9130418371817723</v>
+        <v>0.9099877930719303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9509076524475205</v>
+        <v>0.9506985064183504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1260</v>
@@ -1291,19 +1291,19 @@
         <v>1287206</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1269043</v>
+        <v>1268731</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301897</v>
+        <v>1302213</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.944842664931371</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9315103161649414</v>
+        <v>0.9312813091911422</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9556258919703943</v>
+        <v>0.9558578079848877</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>50725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39458</v>
+        <v>38833</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64799</v>
+        <v>64636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05383555442824831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04187780996186468</v>
+        <v>0.0412143306026617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06877294889836574</v>
+        <v>0.06859969437387992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1416,19 +1416,19 @@
         <v>65889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50193</v>
+        <v>51737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83070</v>
+        <v>85938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06343924043065685</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.048326704111924</v>
+        <v>0.04981366767138756</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07998156325314304</v>
+        <v>0.0827429060283338</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -1437,19 +1437,19 @@
         <v>116614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97559</v>
+        <v>99854</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137995</v>
+        <v>139043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05887106121695618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04925163668598688</v>
+        <v>0.05040994125229789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06966502589906348</v>
+        <v>0.07019413177511422</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>891497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>877423</v>
+        <v>877586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>902764</v>
+        <v>903389</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9461644455717517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.931227051101634</v>
+        <v>0.9314003056261198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9581221900381343</v>
+        <v>0.9587856693973382</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>933</v>
@@ -1487,19 +1487,19 @@
         <v>972723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>955542</v>
+        <v>952674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>988419</v>
+        <v>986875</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9365607595693431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9200184367468571</v>
+        <v>0.9172570939716663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9516732958880761</v>
+        <v>0.9501863323286125</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1869</v>
@@ -1508,19 +1508,19 @@
         <v>1864220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1842839</v>
+        <v>1841791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1883275</v>
+        <v>1880980</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9411289387830438</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9303349741009366</v>
+        <v>0.9298058682248854</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9507483633140135</v>
+        <v>0.9495900587477019</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>185467</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05660445092362176</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>224</v>
@@ -1633,19 +1633,19 @@
         <v>229249</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06784117436893325</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>416</v>
@@ -1654,19 +1654,19 @@
         <v>414716</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06230946674902334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3091076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3066445</v>
+        <v>3065098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3115846</v>
+        <v>3116493</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9433955490763782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9358781712954611</v>
+        <v>0.9354670484225888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.95095521330934</v>
+        <v>0.9511526652231349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3073</v>
@@ -1704,19 +1704,19 @@
         <v>3149948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3120281</v>
+        <v>3118808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3180088</v>
+        <v>3176142</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9321588256310668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9233793101475445</v>
+        <v>0.9229436018354911</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9410780048526205</v>
+        <v>0.9399103672749645</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6095</v>
@@ -1725,19 +1725,19 @@
         <v>6241025</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6198880</v>
+        <v>6201432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6278005</v>
+        <v>6277236</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9376905332509766</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9313583506885944</v>
+        <v>0.9317417759123237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9432465757485009</v>
+        <v>0.9431310117936085</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>48336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35457</v>
+        <v>35736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64883</v>
+        <v>65084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06871111313943208</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05040303166512491</v>
+        <v>0.05079897319359496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09223284652738437</v>
+        <v>0.09251860483993493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -2090,19 +2090,19 @@
         <v>49613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36363</v>
+        <v>36788</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63585</v>
+        <v>65288</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07117625403193704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05216673131855841</v>
+        <v>0.0527761993977186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0912206470351363</v>
+        <v>0.09366259011492183</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -2111,19 +2111,19 @@
         <v>97950</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79936</v>
+        <v>81054</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117555</v>
+        <v>119393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0699380343623927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05707580334650235</v>
+        <v>0.05787441758145868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08393706890247249</v>
+        <v>0.08524893133638502</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>655133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>638586</v>
+        <v>638385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668012</v>
+        <v>667733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9312888868605679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9077671534726157</v>
+        <v>0.907481395160065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9495969683348751</v>
+        <v>0.9492010268064051</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>603</v>
@@ -2161,19 +2161,19 @@
         <v>647437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>633465</v>
+        <v>631762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>660687</v>
+        <v>660262</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9288237459680629</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9087793529648637</v>
+        <v>0.9063374098850782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9478332686814416</v>
+        <v>0.9472238006022812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1232</v>
@@ -2182,19 +2182,19 @@
         <v>1302569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1282964</v>
+        <v>1281126</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1320583</v>
+        <v>1319465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9300619656376073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9160629310975275</v>
+        <v>0.9147510686636149</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9429241966534975</v>
+        <v>0.9421255824185413</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>65707</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52032</v>
+        <v>50810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83650</v>
+        <v>84452</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06454835177687324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05111441233397818</v>
+        <v>0.04991424248864378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08217482087040726</v>
+        <v>0.082963021010316</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -2307,19 +2307,19 @@
         <v>83310</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65580</v>
+        <v>66287</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102652</v>
+        <v>101300</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08096396187483595</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06373342424693905</v>
+        <v>0.06442040530678927</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09976198222775821</v>
+        <v>0.09844735952824787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -2328,19 +2328,19 @@
         <v>149017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126796</v>
+        <v>126058</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174597</v>
+        <v>173782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07280037013969218</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06194486511129622</v>
+        <v>0.06158424510685106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0852973774064848</v>
+        <v>0.08489925679146164</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>952240</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>934297</v>
+        <v>933495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>965915</v>
+        <v>967137</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9354516482231268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9178251791295925</v>
+        <v>0.9170369789896839</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9488855876660217</v>
+        <v>0.9500857575113562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>861</v>
@@ -2378,19 +2378,19 @@
         <v>945663</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>926321</v>
+        <v>927673</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>963393</v>
+        <v>962686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.919036038125164</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9002380177722418</v>
+        <v>0.9015526404717522</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.936266575753061</v>
+        <v>0.9355795946932107</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1737</v>
@@ -2399,19 +2399,19 @@
         <v>1897904</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1872324</v>
+        <v>1873139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1920125</v>
+        <v>1920863</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9271996298603078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.914702622593515</v>
+        <v>0.9151007432085382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9380551348887037</v>
+        <v>0.9384157548931488</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>54702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40623</v>
+        <v>39965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73513</v>
+        <v>71152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07220240047582466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05361933877837043</v>
+        <v>0.05275081594269657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09703167248327604</v>
+        <v>0.09391478580534091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -2524,19 +2524,19 @@
         <v>66045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50864</v>
+        <v>52244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82116</v>
+        <v>83168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08498048852227219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06544787566055578</v>
+        <v>0.06722241267177657</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1056596272774377</v>
+        <v>0.1070135601468652</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -2545,19 +2545,19 @@
         <v>120747</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100660</v>
+        <v>101206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145540</v>
+        <v>143088</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07867282998879226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06558507806628323</v>
+        <v>0.06594068876947012</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09482683431765258</v>
+        <v>0.09322940144734861</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>702921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>684110</v>
+        <v>686471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>717000</v>
+        <v>717658</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9277975995241754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9029683275167243</v>
+        <v>0.9060852141946589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9463806612216297</v>
+        <v>0.9472491840573034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>643</v>
@@ -2595,19 +2595,19 @@
         <v>711129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>695058</v>
+        <v>694006</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>726310</v>
+        <v>724930</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9150195114777278</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8943403727225624</v>
+        <v>0.8929864398531356</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9345521243394442</v>
+        <v>0.9327775873282234</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1283</v>
@@ -2616,19 +2616,19 @@
         <v>1414050</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1389257</v>
+        <v>1391709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1434137</v>
+        <v>1433591</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9213271700112078</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9051731656823474</v>
+        <v>0.9067705985526514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9344149219337168</v>
+        <v>0.9340593112305299</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>88381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70107</v>
+        <v>71521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107381</v>
+        <v>109289</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09325457743257852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07397325968012763</v>
+        <v>0.07546445238068486</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1133027334272047</v>
+        <v>0.1153151264452449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -2741,19 +2741,19 @@
         <v>108235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89757</v>
+        <v>89863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130382</v>
+        <v>129886</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1028948011671593</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08532812837600362</v>
+        <v>0.08542947109126235</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1239488099529672</v>
+        <v>0.123477511849391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -2762,19 +2762,19 @@
         <v>196616</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170464</v>
+        <v>172366</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227154</v>
+        <v>228770</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09832576981627936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08524729299190924</v>
+        <v>0.08619855273616722</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1135972664124124</v>
+        <v>0.1144057443054993</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>859358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>840358</v>
+        <v>838450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>877632</v>
+        <v>876218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9067454225674215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8866972665727954</v>
+        <v>0.884684873554755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9260267403198725</v>
+        <v>0.9245355476193151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>899</v>
@@ -2812,19 +2812,19 @@
         <v>943666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>921519</v>
+        <v>922015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>962144</v>
+        <v>962038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8971051988328408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8760511900470328</v>
+        <v>0.8765224881506091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9146718716239964</v>
+        <v>0.9145705289087377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1727</v>
@@ -2833,19 +2833,19 @@
         <v>1803024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1772486</v>
+        <v>1770870</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1829176</v>
+        <v>1827274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9016742301837206</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8864027335875877</v>
+        <v>0.8855942556945016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9147527070080911</v>
+        <v>0.9138014472638328</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>257126</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228588</v>
+        <v>225919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>292571</v>
+        <v>290927</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07503437428869794</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06670623868613132</v>
+        <v>0.06592744942144681</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08537780398129409</v>
+        <v>0.08489795656720989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>290</v>
@@ -2958,19 +2958,19 @@
         <v>307203</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>275145</v>
+        <v>275961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>340459</v>
+        <v>343372</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08641193782767491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07739449854276674</v>
+        <v>0.07762392035832197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09576642422627944</v>
+        <v>0.09658572317982968</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>526</v>
@@ -2979,19 +2979,19 @@
         <v>564329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>520243</v>
+        <v>522130</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>611249</v>
+        <v>612257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08082770989948908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0745134140554085</v>
+        <v>0.07478362567588512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08754794318881222</v>
+        <v>0.08769236859867235</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3169653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3134208</v>
+        <v>3135852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3198191</v>
+        <v>3200860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.924965625711302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.914622196018706</v>
+        <v>0.9151020434327901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9332937613138688</v>
+        <v>0.9340725505785532</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3006</v>
@@ -3029,19 +3029,19 @@
         <v>3247895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3214639</v>
+        <v>3211726</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3279953</v>
+        <v>3279137</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9135880621723251</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9042335757737204</v>
+        <v>0.9034142768201703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9226055014572332</v>
+        <v>0.9223760796416777</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5979</v>
@@ -3050,19 +3050,19 @@
         <v>6417548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6370628</v>
+        <v>6369620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6461634</v>
+        <v>6459747</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9191722901005109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9124520568111877</v>
+        <v>0.9123076314013276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9254865859445913</v>
+        <v>0.925216374324115</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>65118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52054</v>
+        <v>50600</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83249</v>
+        <v>81140</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09649936301968136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0771396879070277</v>
+        <v>0.07498575568439095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1233677390136961</v>
+        <v>0.1202426111295419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -3415,19 +3415,19 @@
         <v>55479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42281</v>
+        <v>42985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74338</v>
+        <v>72607</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08245464246703595</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06283912976350983</v>
+        <v>0.06388583617588664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1104833915072706</v>
+        <v>0.1079118392378035</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -3436,19 +3436,19 @@
         <v>120596</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101833</v>
+        <v>99725</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142951</v>
+        <v>142142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08948722125306614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07556373773395686</v>
+        <v>0.07400008887669461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1060750299004092</v>
+        <v>0.1054746061040577</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>609682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>591551</v>
+        <v>593660</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>622746</v>
+        <v>624200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9035006369803187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8766322609863042</v>
+        <v>0.8797573888704584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9228603120929724</v>
+        <v>0.9250142443156091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>615</v>
@@ -3486,19 +3486,19 @@
         <v>617360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>598501</v>
+        <v>600232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>630558</v>
+        <v>629854</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9175453575329641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8895166084927292</v>
+        <v>0.8920881607621963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9371608702364898</v>
+        <v>0.9361141638241133</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1201</v>
@@ -3507,19 +3507,19 @@
         <v>1227043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1204688</v>
+        <v>1205497</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1245806</v>
+        <v>1247914</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9105127787469338</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8939249700995903</v>
+        <v>0.8945253938959424</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9244362622660429</v>
+        <v>0.9259999111233056</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>85681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68792</v>
+        <v>68070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103517</v>
+        <v>105081</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08380151649608074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06728230281896161</v>
+        <v>0.06657654815525431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1012462627843205</v>
+        <v>0.1027760009606624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -3632,19 +3632,19 @@
         <v>85061</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66411</v>
+        <v>66632</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104123</v>
+        <v>104796</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08156103204993584</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0636783992234622</v>
+        <v>0.06389055258581633</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09983902177539093</v>
+        <v>0.1004840655155066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>157</v>
@@ -3653,19 +3653,19 @@
         <v>170742</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146925</v>
+        <v>146229</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>195528</v>
+        <v>198926</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08267016483424963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07113819250038507</v>
+        <v>0.07080138123349342</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09467104552560414</v>
+        <v>0.09631631229738143</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>936750</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>918914</v>
+        <v>917350</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953639</v>
+        <v>954361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9161984835039193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8987537372156792</v>
+        <v>0.8972239990393371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9327176971810384</v>
+        <v>0.9334234518447455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>905</v>
@@ -3703,19 +3703,19 @@
         <v>957852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>938790</v>
+        <v>938117</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>976502</v>
+        <v>976281</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9184389679500642</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9001609782246091</v>
+        <v>0.8995159344844936</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9363216007765378</v>
+        <v>0.9361094474141838</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1771</v>
@@ -3724,19 +3724,19 @@
         <v>1894602</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1869816</v>
+        <v>1866418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1918419</v>
+        <v>1919115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9173298351657504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.905328954474396</v>
+        <v>0.9036836877026183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.928861807499615</v>
+        <v>0.9291986187665062</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>74092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58738</v>
+        <v>58808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95045</v>
+        <v>93631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09754634617452412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0773322477261642</v>
+        <v>0.07742477004853977</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1251324286906625</v>
+        <v>0.1232712611565294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3849,19 +3849,19 @@
         <v>69699</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54726</v>
+        <v>55174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88283</v>
+        <v>87562</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08878759053245494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06971343281224411</v>
+        <v>0.07028392863053817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1124613432979696</v>
+        <v>0.111543011942892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -3870,19 +3870,19 @@
         <v>143791</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122152</v>
+        <v>122428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169132</v>
+        <v>168930</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09309478421005292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07908501509587948</v>
+        <v>0.07926403838499096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1095014885558132</v>
+        <v>0.1093704271106819</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>685460</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664507</v>
+        <v>665921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>700814</v>
+        <v>700744</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9024536538254759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8748675713093377</v>
+        <v>0.8767287388434708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9226677522738358</v>
+        <v>0.9225752299514607</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>675</v>
@@ -3920,19 +3920,19 @@
         <v>715312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696728</v>
+        <v>697449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>730285</v>
+        <v>729837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9112124094675451</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8875386567020305</v>
+        <v>0.8884569880571082</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9302865671877559</v>
+        <v>0.9297160713694619</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1303</v>
@@ -3941,19 +3941,19 @@
         <v>1400772</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1375431</v>
+        <v>1375633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1422411</v>
+        <v>1422135</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9069052157899471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8904985114441866</v>
+        <v>0.8906295728893181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9209149849041204</v>
+        <v>0.920735961615009</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>72825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58712</v>
+        <v>58444</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91345</v>
+        <v>89333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07767478081105475</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06262117617425719</v>
+        <v>0.06233584101174169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09742770093775467</v>
+        <v>0.09528190489465334</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -4066,19 +4066,19 @@
         <v>86940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68682</v>
+        <v>68902</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107914</v>
+        <v>107689</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08329344054312481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0658009466274069</v>
+        <v>0.06601224536305215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1033881249889979</v>
+        <v>0.1031726670414092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -4087,19 +4087,19 @@
         <v>159765</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135211</v>
+        <v>136838</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184039</v>
+        <v>185195</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08063470758444953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06824217256971077</v>
+        <v>0.06906293827887862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09288567210198419</v>
+        <v>0.09346909114251345</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>864742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>846222</v>
+        <v>848234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>878855</v>
+        <v>879123</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9223252191889453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9025722990622453</v>
+        <v>0.9047180951053466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9373788238257429</v>
+        <v>0.9376641589882579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>886</v>
@@ -4137,19 +4137,19 @@
         <v>956839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>935865</v>
+        <v>936090</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>975097</v>
+        <v>974877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9167065594568752</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8966118750110021</v>
+        <v>0.8968273329585907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9341990533725932</v>
+        <v>0.9339877546369478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1739</v>
@@ -4158,19 +4158,19 @@
         <v>1821581</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1797307</v>
+        <v>1796151</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1846135</v>
+        <v>1844508</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9193652924155504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9071143278980158</v>
+        <v>0.9065309088574866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9317578274302893</v>
+        <v>0.9309370617211215</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>297716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>267232</v>
+        <v>261615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>330032</v>
+        <v>328637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08770924501005262</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07872848379117263</v>
+        <v>0.07707380203792968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09722985943549743</v>
+        <v>0.09681875621243795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>257</v>
@@ -4283,19 +4283,19 @@
         <v>297179</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260278</v>
+        <v>263414</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>332822</v>
+        <v>333959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08384128023455691</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07343076164983572</v>
+        <v>0.07431539782587862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09389707057033511</v>
+        <v>0.09421769906479904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>555</v>
@@ -4304,19 +4304,19 @@
         <v>594895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>547519</v>
+        <v>545158</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>642923</v>
+        <v>645905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08573340175995259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07890582724480741</v>
+        <v>0.07856558171309563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0926550157400312</v>
+        <v>0.09308475615842204</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3096634</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3064318</v>
+        <v>3065713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3127118</v>
+        <v>3132735</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9122907549899474</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9027701405645026</v>
+        <v>0.9031812437875621</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9212715162088274</v>
+        <v>0.9229261979620703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3081</v>
@@ -4354,19 +4354,19 @@
         <v>3247363</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3211720</v>
+        <v>3210583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3284264</v>
+        <v>3281128</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9161587197654431</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9061029294296649</v>
+        <v>0.905782300935201</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9265692383501641</v>
+        <v>0.9256846021741209</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6014</v>
@@ -4375,19 +4375,19 @@
         <v>6343997</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6295969</v>
+        <v>6292987</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6391373</v>
+        <v>6393734</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9142665982400474</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9073449842599689</v>
+        <v>0.906915243841578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9210941727551927</v>
+        <v>0.9214344182869044</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>69535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57492</v>
+        <v>56192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83362</v>
+        <v>86618</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.100907833585831</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08343176658066592</v>
+        <v>0.08154478436401848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.120973647613097</v>
+        <v>0.1256977598910842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>158</v>
@@ -4740,19 +4740,19 @@
         <v>71119</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61286</v>
+        <v>60811</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83522</v>
+        <v>83241</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09706146976661362</v>
+        <v>0.09706146976661358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08364087401572042</v>
+        <v>0.08299265929751326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1139886210675645</v>
+        <v>0.1136048094495886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>258</v>
@@ -4761,19 +4761,19 @@
         <v>140654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123987</v>
+        <v>123482</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160887</v>
+        <v>159769</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09892563927855272</v>
+        <v>0.09892563927855273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0872032977660523</v>
+        <v>0.08684774778886603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.113155887054602</v>
+        <v>0.112369522965702</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>619559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>605732</v>
+        <v>602476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>631602</v>
+        <v>632902</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8990921664141689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8790263523869029</v>
+        <v>0.8743022401089158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.916568233419334</v>
+        <v>0.9184552156359822</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1080</v>
@@ -4811,19 +4811,19 @@
         <v>661603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>649200</v>
+        <v>649481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>671436</v>
+        <v>671911</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9029385302333864</v>
+        <v>0.9029385302333863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8860113789324352</v>
+        <v>0.8863951905504114</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9163591259842795</v>
+        <v>0.9170073407024868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1708</v>
@@ -4832,19 +4832,19 @@
         <v>1281162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1260929</v>
+        <v>1262047</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1297829</v>
+        <v>1298334</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9010743607214473</v>
+        <v>0.9010743607214474</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.886844112945398</v>
+        <v>0.887630477034298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9127967022339476</v>
+        <v>0.9131522522111341</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>92768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76057</v>
+        <v>78123</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111739</v>
+        <v>113241</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08852672539484827</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07257942414281272</v>
+        <v>0.07455093086165014</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1066296805402221</v>
+        <v>0.1080632892613209</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -4957,19 +4957,19 @@
         <v>85291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73145</v>
+        <v>73059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99814</v>
+        <v>99486</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07974869981021926</v>
+        <v>0.07974869981021925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0683918623661575</v>
+        <v>0.06831145213860951</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09332733450005513</v>
+        <v>0.09302053298464076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -4978,19 +4978,19 @@
         <v>178060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158012</v>
+        <v>157103</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200058</v>
+        <v>201004</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08409295997552693</v>
+        <v>0.08409295997552695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07462472462738749</v>
+        <v>0.07419568171672626</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09448217579757361</v>
+        <v>0.0949287317455112</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>955145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>936174</v>
+        <v>934672</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>971856</v>
+        <v>969790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9114732746051517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8933703194597777</v>
+        <v>0.8919367107386791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9274205758571874</v>
+        <v>0.92544906913835</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1358</v>
@@ -5028,19 +5028,19 @@
         <v>984212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>969689</v>
+        <v>970017</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>996358</v>
+        <v>996444</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9202513001897809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9066726654999449</v>
+        <v>0.906979467015359</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9316081376338422</v>
+        <v>0.9316885478613905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2202</v>
@@ -5049,19 +5049,19 @@
         <v>1939356</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1917358</v>
+        <v>1916412</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1959404</v>
+        <v>1960313</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.915907040024473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9055178242024285</v>
+        <v>0.9050712682544888</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9253752753726124</v>
+        <v>0.9258043182832738</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>71007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56861</v>
+        <v>56133</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88337</v>
+        <v>86361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08862420435735459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07096840076702489</v>
+        <v>0.07005978559371595</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.110253852175715</v>
+        <v>0.1077869181450815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -5174,19 +5174,19 @@
         <v>51966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42038</v>
+        <v>41510</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63249</v>
+        <v>63772</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06403104099444802</v>
+        <v>0.06403104099444804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05179869749676</v>
+        <v>0.05114752197523439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07793429266826739</v>
+        <v>0.07857824248393597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -5195,19 +5195,19 @@
         <v>122973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105180</v>
+        <v>105101</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145095</v>
+        <v>142416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07624868113695139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06521623879931947</v>
+        <v>0.06516710191809257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08996553597910206</v>
+        <v>0.08830425637268331</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>730210</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>712880</v>
+        <v>714856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>744356</v>
+        <v>745084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9113757956426455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8897461478242847</v>
+        <v>0.8922130818549184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9290315992329747</v>
+        <v>0.9299402144062837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>962</v>
@@ -5245,19 +5245,19 @@
         <v>759605</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>748322</v>
+        <v>747799</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>769533</v>
+        <v>770061</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9359689590055519</v>
+        <v>0.935968959005552</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9220657073317329</v>
+        <v>0.9214217575160641</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9482013025032401</v>
+        <v>0.9488524780247656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1558</v>
@@ -5266,19 +5266,19 @@
         <v>1489815</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1467693</v>
+        <v>1470372</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1507608</v>
+        <v>1507687</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9237513188630486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9100344640208979</v>
+        <v>0.9116957436273166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9347837612006806</v>
+        <v>0.9348328980819074</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>94850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80280</v>
+        <v>80381</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113624</v>
+        <v>113549</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09613338396829176</v>
+        <v>0.09613338396829174</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08136618204097092</v>
+        <v>0.08146927614227879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.115161878854507</v>
+        <v>0.1150855087362973</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -5391,19 +5391,19 @@
         <v>83437</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70873</v>
+        <v>71614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96788</v>
+        <v>97736</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07468209330290503</v>
+        <v>0.07468209330290498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0634363995998873</v>
+        <v>0.0640995124804192</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08663205990461095</v>
+        <v>0.08748046724312937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>273</v>
@@ -5412,19 +5412,19 @@
         <v>178287</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158284</v>
+        <v>157149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202771</v>
+        <v>201629</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08474200678444284</v>
+        <v>0.08474200678444282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07523416493034618</v>
+        <v>0.07469483257975802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09637933018742376</v>
+        <v>0.09583670209472135</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>891797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>873023</v>
+        <v>873098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>906367</v>
+        <v>906266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9038666160317083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8848381211454929</v>
+        <v>0.8849144912637025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9186338179590291</v>
+        <v>0.9185307238577212</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1414</v>
@@ -5462,19 +5462,19 @@
         <v>1033796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1020445</v>
+        <v>1019497</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1046360</v>
+        <v>1045619</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9253179066970951</v>
+        <v>0.925317906697095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9133679400953889</v>
+        <v>0.9125195327568705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9365636004001127</v>
+        <v>0.9359004875195805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2291</v>
@@ -5483,19 +5483,19 @@
         <v>1925593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1901109</v>
+        <v>1902251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1945596</v>
+        <v>1946731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9152579932155571</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9036206698125762</v>
+        <v>0.9041632979052788</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9247658350696539</v>
+        <v>0.925305167420242</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>328160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>293804</v>
+        <v>297306</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>359566</v>
+        <v>362373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09309850503376976</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08335161893581522</v>
+        <v>0.08434513625476105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.102008394792297</v>
+        <v>0.1028045011550224</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>543</v>
@@ -5608,19 +5608,19 @@
         <v>291814</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265265</v>
+        <v>266405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>315516</v>
+        <v>316623</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07821262707958804</v>
+        <v>0.07821262707958802</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07109691161738906</v>
+        <v>0.07140266166987179</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0845652904753893</v>
+        <v>0.08486219714060246</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>968</v>
@@ -5629,19 +5629,19 @@
         <v>619974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>582589</v>
+        <v>581662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>666803</v>
+        <v>663405</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08544409361179556</v>
+        <v>0.08544409361179553</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08029176399350695</v>
+        <v>0.08016400604683412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09189800136500159</v>
+        <v>0.09142978568033808</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3196711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3165305</v>
+        <v>3162498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3231067</v>
+        <v>3227565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9069014949662304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8979916052077029</v>
+        <v>0.8971954988449768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9166483810641844</v>
+        <v>0.9156548637452387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4814</v>
@@ -5679,19 +5679,19 @@
         <v>3439215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3415513</v>
+        <v>3414406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3465764</v>
+        <v>3464624</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.921787372920412</v>
+        <v>0.9217873729204118</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9154347095246106</v>
+        <v>0.9151378028593977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.928903088382611</v>
+        <v>0.9285973383301283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7759</v>
@@ -5700,19 +5700,19 @@
         <v>6635926</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6589097</v>
+        <v>6592495</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6673311</v>
+        <v>6674238</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9145559063882046</v>
+        <v>0.9145559063882045</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9081019986349984</v>
+        <v>0.908570214319662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9197082360064932</v>
+        <v>0.9198359939531658</v>
       </c>
     </row>
     <row r="18">
